--- a/JSMM - Horários 2016.xlsx
+++ b/JSMM - Horários 2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="973" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Ano 2016" sheetId="1" state="visible" r:id="rId2"/>
@@ -1661,8 +1661,8 @@
   </sheetPr>
   <dimension ref="1:369"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B237" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E255" activeCellId="0" sqref="E255"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A249" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C259" activeCellId="0" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -31994,13 +31994,17 @@
       <c r="T254" s="0"/>
       <c r="AC254" s="0"/>
     </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="16" t="n">
         <f aca="false">A254+1</f>
         <v>42622</v>
       </c>
-      <c r="B255" s="17"/>
-      <c r="C255" s="17"/>
+      <c r="B255" s="17" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="C255" s="17" t="n">
+        <v>0.555555555555556</v>
+      </c>
       <c r="D255" s="17"/>
       <c r="E255" s="17"/>
       <c r="F255" s="17"/>
@@ -32009,11 +32013,11 @@
       <c r="I255" s="17"/>
       <c r="J255" s="18" t="n">
         <f aca="false">IF(OR(B255="",(WEEKDAY(A255,1)=1),(WEEKDAY(A255,1)=7), NOT(ISERROR(VLOOKUP($A255,'.'!$B$9:$B$21,1,0)))),0,'.'!$B$4)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K255" s="18" t="n">
-        <f aca="false">(IF(TRIM(C255)="-",0,C255)-IF(TRIM(B255)="-",0,B255))+(IF(TRIM(D251)="-",0,D251)-IF(TRIM(D255)="-",0,D255))+(IF(TRIM(G255)="-",0,G255)-IF(TRIM(E251)="-",0,E251))+(IF(TRIM(I255)="-",0,I255)-IF(TRIM(H255)="-",0,H255))</f>
-        <v>0</v>
+        <f aca="false">(IF(TRIM(C255)="-",0,C255)-IF(TRIM(B255)="-",0,B255))+(IF(TRIM(E255)="-",0,E255)-IF(TRIM(D255)="-",0,D255))+(IF(TRIM(G255)="-",0,G255)-IF(TRIM(F255)="-",0,F255))+(IF(TRIM(I255)="-",0,I255)-IF(TRIM(H255)="-",0,H255))</f>
+        <v>0.211805555555555</v>
       </c>
       <c r="L255" s="18" t="n">
         <f aca="false">IF(K255&gt;=J255,(IF((K255-J255)&gt;0.0075,K255-J255,0)),0) * IF(NOT(ISERROR(VLOOKUP($A255,'.'!$B$9:$B$21,1,0))),'.'!$E$4,IF((WEEKDAY($A255,1)=7),'.'!$C$4,IF((WEEKDAY($A255,1)=1),'.'!$D$4,1)))</f>
@@ -32021,7 +32025,7 @@
       </c>
       <c r="M255" s="18" t="n">
         <f aca="false">IF(J255&gt;=K255,(IF((J255-K255)&gt;0.0075,J255-K255,0)),0)</f>
-        <v>0</v>
+        <v>0.0381944444444445</v>
       </c>
       <c r="N255" s="17" t="str">
         <f aca="false">IFERROR(VLOOKUP($A255,'.'!$B$9:$C$21,2,0),"")</f>
@@ -32035,7 +32039,7 @@
       <c r="T255" s="0"/>
       <c r="AC255" s="0"/>
     </row>
-    <row r="256" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="16" t="n">
         <f aca="false">A255+1</f>
         <v>42623</v>
@@ -32053,7 +32057,7 @@
         <v>0</v>
       </c>
       <c r="K256" s="18" t="n">
-        <f aca="false">(IF(TRIM(C256)="-",0,C256)-IF(TRIM(B256)="-",0,B256))+(IF(TRIM(D252)="-",0,D252)-IF(TRIM(D256)="-",0,D256))+(IF(TRIM(G256)="-",0,G256)-IF(TRIM(E252)="-",0,E252))+(IF(TRIM(I256)="-",0,I256)-IF(TRIM(H256)="-",0,H256))</f>
+        <f aca="false">(IF(TRIM(C256)="-",0,C256)-IF(TRIM(B256)="-",0,B256))+(IF(TRIM(E256)="-",0,E256)-IF(TRIM(D256)="-",0,D256))+(IF(TRIM(G256)="-",0,G256)-IF(TRIM(F256)="-",0,F256))+(IF(TRIM(I256)="-",0,I256)-IF(TRIM(H256)="-",0,H256))</f>
         <v>0</v>
       </c>
       <c r="L256" s="18" t="n">
@@ -32076,7 +32080,7 @@
       <c r="T256" s="0"/>
       <c r="AC256" s="0"/>
     </row>
-    <row r="257" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="16" t="n">
         <f aca="false">A256+1</f>
         <v>42624</v>
@@ -32094,7 +32098,7 @@
         <v>0</v>
       </c>
       <c r="K257" s="18" t="n">
-        <f aca="false">(IF(TRIM(C257)="-",0,C257)-IF(TRIM(B257)="-",0,B257))+(IF(TRIM(D253)="-",0,D253)-IF(TRIM(D257)="-",0,D257))+(IF(TRIM(G257)="-",0,G257)-IF(TRIM(E253)="-",0,E253))+(IF(TRIM(I257)="-",0,I257)-IF(TRIM(H257)="-",0,H257))</f>
+        <f aca="false">(IF(TRIM(C257)="-",0,C257)-IF(TRIM(B257)="-",0,B257))+(IF(TRIM(E257)="-",0,E257)-IF(TRIM(D257)="-",0,D257))+(IF(TRIM(G257)="-",0,G257)-IF(TRIM(F257)="-",0,F257))+(IF(TRIM(I257)="-",0,I257)-IF(TRIM(H257)="-",0,H257))</f>
         <v>0</v>
       </c>
       <c r="L257" s="18" t="n">
@@ -32122,8 +32126,12 @@
         <f aca="false">A257+1</f>
         <v>42625</v>
       </c>
-      <c r="B258" s="17"/>
-      <c r="C258" s="17"/>
+      <c r="B258" s="17" t="n">
+        <v>0.340277777777778</v>
+      </c>
+      <c r="C258" s="17" t="n">
+        <v>0.604166666666667</v>
+      </c>
       <c r="D258" s="17"/>
       <c r="E258" s="17"/>
       <c r="F258" s="17"/>
@@ -32132,15 +32140,15 @@
       <c r="I258" s="17"/>
       <c r="J258" s="18" t="n">
         <f aca="false">IF(OR(B258="",(WEEKDAY(A258,1)=1),(WEEKDAY(A258,1)=7), NOT(ISERROR(VLOOKUP($A258,'.'!$B$9:$B$21,1,0)))),0,'.'!$B$4)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K258" s="18" t="n">
-        <f aca="false">(IF(TRIM(C258)="-",0,C258)-IF(TRIM(B258)="-",0,B258))+(IF(TRIM(D254)="-",0,D254)-IF(TRIM(D258)="-",0,D258))+(IF(TRIM(G258)="-",0,G258)-IF(TRIM(E254)="-",0,E254))+(IF(TRIM(I258)="-",0,I258)-IF(TRIM(H258)="-",0,H258))</f>
-        <v>-0.0833333333333331</v>
+        <f aca="false">(IF(TRIM(C258)="-",0,C258)-IF(TRIM(B258)="-",0,B258))+(IF(TRIM(E258)="-",0,E258)-IF(TRIM(D258)="-",0,D258))+(IF(TRIM(G258)="-",0,G258)-IF(TRIM(F258)="-",0,F258))+(IF(TRIM(I258)="-",0,I258)-IF(TRIM(H258)="-",0,H258))</f>
+        <v>0.263888888888889</v>
       </c>
       <c r="L258" s="18" t="n">
         <f aca="false">IF(K258&gt;=J258,(IF((K258-J258)&gt;0.0075,K258-J258,0)),0) * IF(NOT(ISERROR(VLOOKUP($A258,'.'!$B$9:$B$21,1,0))),'.'!$E$4,IF((WEEKDAY($A258,1)=7),'.'!$C$4,IF((WEEKDAY($A258,1)=1),'.'!$D$4,1)))</f>
-        <v>0</v>
+        <v>0.0138888888888888</v>
       </c>
       <c r="M258" s="18"/>
       <c r="N258" s="17" t="str">
@@ -32155,7 +32163,7 @@
       <c r="T258" s="43"/>
       <c r="AC258" s="0"/>
     </row>
-    <row r="259" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="16" t="n">
         <f aca="false">A258+1</f>
         <v>42626</v>
@@ -32173,7 +32181,7 @@
         <v>0</v>
       </c>
       <c r="K259" s="18" t="n">
-        <f aca="false">(IF(TRIM(C259)="-",0,C259)-IF(TRIM(B259)="-",0,B259))+(IF(TRIM(D255)="-",0,D255)-IF(TRIM(D259)="-",0,D259))+(IF(TRIM(G259)="-",0,G259)-IF(TRIM(E255)="-",0,E255))+(IF(TRIM(I259)="-",0,I259)-IF(TRIM(H259)="-",0,H259))</f>
+        <f aca="false">(IF(TRIM(C259)="-",0,C259)-IF(TRIM(B259)="-",0,B259))+(IF(TRIM(E259)="-",0,E259)-IF(TRIM(D259)="-",0,D259))+(IF(TRIM(G259)="-",0,G259)-IF(TRIM(F259)="-",0,F259))+(IF(TRIM(I259)="-",0,I259)-IF(TRIM(H259)="-",0,H259))</f>
         <v>0</v>
       </c>
       <c r="L259" s="18" t="n">
@@ -32196,7 +32204,7 @@
       <c r="T259" s="43"/>
       <c r="AC259" s="0"/>
     </row>
-    <row r="260" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="16" t="n">
         <f aca="false">A259+1</f>
         <v>42627</v>
@@ -32214,7 +32222,7 @@
         <v>0</v>
       </c>
       <c r="K260" s="18" t="n">
-        <f aca="false">(IF(TRIM(C260)="-",0,C260)-IF(TRIM(B260)="-",0,B260))+(IF(TRIM(D256)="-",0,D256)-IF(TRIM(D260)="-",0,D260))+(IF(TRIM(G260)="-",0,G260)-IF(TRIM(E256)="-",0,E256))+(IF(TRIM(I260)="-",0,I260)-IF(TRIM(H260)="-",0,H260))</f>
+        <f aca="false">(IF(TRIM(C260)="-",0,C260)-IF(TRIM(B260)="-",0,B260))+(IF(TRIM(E260)="-",0,E260)-IF(TRIM(D260)="-",0,D260))+(IF(TRIM(G260)="-",0,G260)-IF(TRIM(F260)="-",0,F260))+(IF(TRIM(I260)="-",0,I260)-IF(TRIM(H260)="-",0,H260))</f>
         <v>0</v>
       </c>
       <c r="L260" s="18" t="n">
@@ -32236,7 +32244,7 @@
       <c r="S260" s="10"/>
       <c r="AC260" s="0"/>
     </row>
-    <row r="261" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="16" t="n">
         <f aca="false">A260+1</f>
         <v>42628</v>
@@ -32254,7 +32262,7 @@
         <v>0</v>
       </c>
       <c r="K261" s="18" t="n">
-        <f aca="false">(IF(TRIM(C261)="-",0,C261)-IF(TRIM(B261)="-",0,B261))+(IF(TRIM(D257)="-",0,D257)-IF(TRIM(D261)="-",0,D261))+(IF(TRIM(G261)="-",0,G261)-IF(TRIM(E257)="-",0,E257))+(IF(TRIM(I261)="-",0,I261)-IF(TRIM(H261)="-",0,H261))</f>
+        <f aca="false">(IF(TRIM(C261)="-",0,C261)-IF(TRIM(B261)="-",0,B261))+(IF(TRIM(E261)="-",0,E261)-IF(TRIM(D261)="-",0,D261))+(IF(TRIM(G261)="-",0,G261)-IF(TRIM(F261)="-",0,F261))+(IF(TRIM(I261)="-",0,I261)-IF(TRIM(H261)="-",0,H261))</f>
         <v>0</v>
       </c>
       <c r="L261" s="18" t="n">
@@ -32276,7 +32284,7 @@
       <c r="S261" s="10"/>
       <c r="AC261" s="0"/>
     </row>
-    <row r="262" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="16" t="n">
         <f aca="false">A261+1</f>
         <v>42629</v>
@@ -32294,7 +32302,7 @@
         <v>0</v>
       </c>
       <c r="K262" s="18" t="n">
-        <f aca="false">(IF(TRIM(C262)="-",0,C262)-IF(TRIM(B262)="-",0,B262))+(IF(TRIM(D258)="-",0,D258)-IF(TRIM(D262)="-",0,D262))+(IF(TRIM(G262)="-",0,G262)-IF(TRIM(E258)="-",0,E258))+(IF(TRIM(I262)="-",0,I262)-IF(TRIM(H262)="-",0,H262))</f>
+        <f aca="false">(IF(TRIM(C262)="-",0,C262)-IF(TRIM(B262)="-",0,B262))+(IF(TRIM(E262)="-",0,E262)-IF(TRIM(D262)="-",0,D262))+(IF(TRIM(G262)="-",0,G262)-IF(TRIM(F262)="-",0,F262))+(IF(TRIM(I262)="-",0,I262)-IF(TRIM(H262)="-",0,H262))</f>
         <v>0</v>
       </c>
       <c r="L262" s="18" t="n">
@@ -32316,7 +32324,7 @@
       <c r="S262" s="10"/>
       <c r="AC262" s="0"/>
     </row>
-    <row r="263" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="16" t="n">
         <f aca="false">A262+1</f>
         <v>42630</v>
@@ -32334,7 +32342,7 @@
         <v>0</v>
       </c>
       <c r="K263" s="18" t="n">
-        <f aca="false">(IF(TRIM(C263)="-",0,C263)-IF(TRIM(B263)="-",0,B263))+(IF(TRIM(D259)="-",0,D259)-IF(TRIM(D263)="-",0,D263))+(IF(TRIM(G263)="-",0,G263)-IF(TRIM(E259)="-",0,E259))+(IF(TRIM(I263)="-",0,I263)-IF(TRIM(H263)="-",0,H263))</f>
+        <f aca="false">(IF(TRIM(C263)="-",0,C263)-IF(TRIM(B263)="-",0,B263))+(IF(TRIM(E263)="-",0,E263)-IF(TRIM(D263)="-",0,D263))+(IF(TRIM(G263)="-",0,G263)-IF(TRIM(F263)="-",0,F263))+(IF(TRIM(I263)="-",0,I263)-IF(TRIM(H263)="-",0,H263))</f>
         <v>0</v>
       </c>
       <c r="L263" s="18" t="n">
@@ -32356,7 +32364,7 @@
       <c r="S263" s="10"/>
       <c r="AC263" s="0"/>
     </row>
-    <row r="264" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="16" t="n">
         <f aca="false">A263+1</f>
         <v>42631</v>
@@ -32374,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="K264" s="18" t="n">
-        <f aca="false">(IF(TRIM(C264)="-",0,C264)-IF(TRIM(B264)="-",0,B264))+(IF(TRIM(D260)="-",0,D260)-IF(TRIM(D264)="-",0,D264))+(IF(TRIM(G264)="-",0,G264)-IF(TRIM(E260)="-",0,E260))+(IF(TRIM(I264)="-",0,I264)-IF(TRIM(H264)="-",0,H264))</f>
+        <f aca="false">(IF(TRIM(C264)="-",0,C264)-IF(TRIM(B264)="-",0,B264))+(IF(TRIM(E264)="-",0,E264)-IF(TRIM(D264)="-",0,D264))+(IF(TRIM(G264)="-",0,G264)-IF(TRIM(F264)="-",0,F264))+(IF(TRIM(I264)="-",0,I264)-IF(TRIM(H264)="-",0,H264))</f>
         <v>0</v>
       </c>
       <c r="L264" s="18" t="n">
@@ -32396,7 +32404,7 @@
       <c r="S264" s="10"/>
       <c r="AC264" s="0"/>
     </row>
-    <row r="265" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="16" t="n">
         <f aca="false">A264+1</f>
         <v>42632</v>
@@ -32414,7 +32422,7 @@
         <v>0</v>
       </c>
       <c r="K265" s="18" t="n">
-        <f aca="false">(IF(TRIM(C265)="-",0,C265)-IF(TRIM(B265)="-",0,B265))+(IF(TRIM(D261)="-",0,D261)-IF(TRIM(D265)="-",0,D265))+(IF(TRIM(G265)="-",0,G265)-IF(TRIM(E261)="-",0,E261))+(IF(TRIM(I265)="-",0,I265)-IF(TRIM(H265)="-",0,H265))</f>
+        <f aca="false">(IF(TRIM(C265)="-",0,C265)-IF(TRIM(B265)="-",0,B265))+(IF(TRIM(E265)="-",0,E265)-IF(TRIM(D265)="-",0,D265))+(IF(TRIM(G265)="-",0,G265)-IF(TRIM(F265)="-",0,F265))+(IF(TRIM(I265)="-",0,I265)-IF(TRIM(H265)="-",0,H265))</f>
         <v>0</v>
       </c>
       <c r="L265" s="18" t="n">
@@ -32436,7 +32444,7 @@
       <c r="S265" s="10"/>
       <c r="AC265" s="0"/>
     </row>
-    <row r="266" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="16" t="n">
         <f aca="false">A265+1</f>
         <v>42633</v>
@@ -32454,7 +32462,7 @@
         <v>0</v>
       </c>
       <c r="K266" s="18" t="n">
-        <f aca="false">(IF(TRIM(C266)="-",0,C266)-IF(TRIM(B266)="-",0,B266))+(IF(TRIM(D262)="-",0,D262)-IF(TRIM(D266)="-",0,D266))+(IF(TRIM(G266)="-",0,G266)-IF(TRIM(E262)="-",0,E262))+(IF(TRIM(I266)="-",0,I266)-IF(TRIM(H266)="-",0,H266))</f>
+        <f aca="false">(IF(TRIM(C266)="-",0,C266)-IF(TRIM(B266)="-",0,B266))+(IF(TRIM(E266)="-",0,E266)-IF(TRIM(D266)="-",0,D266))+(IF(TRIM(G266)="-",0,G266)-IF(TRIM(F266)="-",0,F266))+(IF(TRIM(I266)="-",0,I266)-IF(TRIM(H266)="-",0,H266))</f>
         <v>0</v>
       </c>
       <c r="L266" s="18" t="n">
@@ -32476,7 +32484,7 @@
       <c r="S266" s="10"/>
       <c r="AC266" s="0"/>
     </row>
-    <row r="267" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="16" t="n">
         <f aca="false">A266+1</f>
         <v>42634</v>
@@ -32494,7 +32502,7 @@
         <v>0</v>
       </c>
       <c r="K267" s="18" t="n">
-        <f aca="false">(IF(TRIM(C267)="-",0,C267)-IF(TRIM(B267)="-",0,B267))+(IF(TRIM(D263)="-",0,D263)-IF(TRIM(D267)="-",0,D267))+(IF(TRIM(G267)="-",0,G267)-IF(TRIM(E263)="-",0,E263))+(IF(TRIM(I267)="-",0,I267)-IF(TRIM(H267)="-",0,H267))</f>
+        <f aca="false">(IF(TRIM(C267)="-",0,C267)-IF(TRIM(B267)="-",0,B267))+(IF(TRIM(E267)="-",0,E267)-IF(TRIM(D267)="-",0,D267))+(IF(TRIM(G267)="-",0,G267)-IF(TRIM(F267)="-",0,F267))+(IF(TRIM(I267)="-",0,I267)-IF(TRIM(H267)="-",0,H267))</f>
         <v>0</v>
       </c>
       <c r="L267" s="18" t="n">
@@ -32516,7 +32524,7 @@
       <c r="S267" s="10"/>
       <c r="AC267" s="0"/>
     </row>
-    <row r="268" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="16" t="n">
         <f aca="false">A267+1</f>
         <v>42635</v>
@@ -32534,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="K268" s="18" t="n">
-        <f aca="false">(IF(TRIM(C268)="-",0,C268)-IF(TRIM(B268)="-",0,B268))+(IF(TRIM(D264)="-",0,D264)-IF(TRIM(D268)="-",0,D268))+(IF(TRIM(G268)="-",0,G268)-IF(TRIM(E264)="-",0,E264))+(IF(TRIM(I268)="-",0,I268)-IF(TRIM(H268)="-",0,H268))</f>
+        <f aca="false">(IF(TRIM(C268)="-",0,C268)-IF(TRIM(B268)="-",0,B268))+(IF(TRIM(E268)="-",0,E268)-IF(TRIM(D268)="-",0,D268))+(IF(TRIM(G268)="-",0,G268)-IF(TRIM(F268)="-",0,F268))+(IF(TRIM(I268)="-",0,I268)-IF(TRIM(H268)="-",0,H268))</f>
         <v>0</v>
       </c>
       <c r="L268" s="18" t="n">
@@ -32556,7 +32564,7 @@
       <c r="S268" s="10"/>
       <c r="AC268" s="0"/>
     </row>
-    <row r="269" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="16" t="n">
         <f aca="false">A268+1</f>
         <v>42636</v>
@@ -32574,7 +32582,7 @@
         <v>0</v>
       </c>
       <c r="K269" s="18" t="n">
-        <f aca="false">(IF(TRIM(C269)="-",0,C269)-IF(TRIM(B269)="-",0,B269))+(IF(TRIM(D265)="-",0,D265)-IF(TRIM(D269)="-",0,D269))+(IF(TRIM(G269)="-",0,G269)-IF(TRIM(E265)="-",0,E265))+(IF(TRIM(I269)="-",0,I269)-IF(TRIM(H269)="-",0,H269))</f>
+        <f aca="false">(IF(TRIM(C269)="-",0,C269)-IF(TRIM(B269)="-",0,B269))+(IF(TRIM(E269)="-",0,E269)-IF(TRIM(D269)="-",0,D269))+(IF(TRIM(G269)="-",0,G269)-IF(TRIM(F269)="-",0,F269))+(IF(TRIM(I269)="-",0,I269)-IF(TRIM(H269)="-",0,H269))</f>
         <v>0</v>
       </c>
       <c r="L269" s="18" t="n">
@@ -32596,7 +32604,7 @@
       <c r="S269" s="10"/>
       <c r="AC269" s="0"/>
     </row>
-    <row r="270" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="16" t="n">
         <f aca="false">A269+1</f>
         <v>42637</v>
@@ -32614,7 +32622,7 @@
         <v>0</v>
       </c>
       <c r="K270" s="18" t="n">
-        <f aca="false">(IF(TRIM(C270)="-",0,C270)-IF(TRIM(B270)="-",0,B270))+(IF(TRIM(D266)="-",0,D266)-IF(TRIM(D270)="-",0,D270))+(IF(TRIM(G270)="-",0,G270)-IF(TRIM(E266)="-",0,E266))+(IF(TRIM(I270)="-",0,I270)-IF(TRIM(H270)="-",0,H270))</f>
+        <f aca="false">(IF(TRIM(C270)="-",0,C270)-IF(TRIM(B270)="-",0,B270))+(IF(TRIM(E270)="-",0,E270)-IF(TRIM(D270)="-",0,D270))+(IF(TRIM(G270)="-",0,G270)-IF(TRIM(F270)="-",0,F270))+(IF(TRIM(I270)="-",0,I270)-IF(TRIM(H270)="-",0,H270))</f>
         <v>0</v>
       </c>
       <c r="L270" s="18" t="n">
@@ -32636,7 +32644,7 @@
       <c r="S270" s="10"/>
       <c r="AC270" s="0"/>
     </row>
-    <row r="271" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="16" t="n">
         <f aca="false">A270+1</f>
         <v>42638</v>
@@ -32654,7 +32662,7 @@
         <v>0</v>
       </c>
       <c r="K271" s="18" t="n">
-        <f aca="false">(IF(TRIM(C271)="-",0,C271)-IF(TRIM(B271)="-",0,B271))+(IF(TRIM(D267)="-",0,D267)-IF(TRIM(D271)="-",0,D271))+(IF(TRIM(G271)="-",0,G271)-IF(TRIM(E267)="-",0,E267))+(IF(TRIM(I271)="-",0,I271)-IF(TRIM(H271)="-",0,H271))</f>
+        <f aca="false">(IF(TRIM(C271)="-",0,C271)-IF(TRIM(B271)="-",0,B271))+(IF(TRIM(E271)="-",0,E271)-IF(TRIM(D271)="-",0,D271))+(IF(TRIM(G271)="-",0,G271)-IF(TRIM(F271)="-",0,F271))+(IF(TRIM(I271)="-",0,I271)-IF(TRIM(H271)="-",0,H271))</f>
         <v>0</v>
       </c>
       <c r="L271" s="18" t="n">
@@ -32676,7 +32684,7 @@
       <c r="S271" s="10"/>
       <c r="AC271" s="0"/>
     </row>
-    <row r="272" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="16" t="n">
         <f aca="false">A271+1</f>
         <v>42639</v>
@@ -32694,7 +32702,7 @@
         <v>0</v>
       </c>
       <c r="K272" s="18" t="n">
-        <f aca="false">(IF(TRIM(C272)="-",0,C272)-IF(TRIM(B272)="-",0,B272))+(IF(TRIM(D268)="-",0,D268)-IF(TRIM(D272)="-",0,D272))+(IF(TRIM(G272)="-",0,G272)-IF(TRIM(E268)="-",0,E268))+(IF(TRIM(I272)="-",0,I272)-IF(TRIM(H272)="-",0,H272))</f>
+        <f aca="false">(IF(TRIM(C272)="-",0,C272)-IF(TRIM(B272)="-",0,B272))+(IF(TRIM(E272)="-",0,E272)-IF(TRIM(D272)="-",0,D272))+(IF(TRIM(G272)="-",0,G272)-IF(TRIM(F272)="-",0,F272))+(IF(TRIM(I272)="-",0,I272)-IF(TRIM(H272)="-",0,H272))</f>
         <v>0</v>
       </c>
       <c r="L272" s="18" t="n">
@@ -32716,7 +32724,7 @@
       <c r="S272" s="10"/>
       <c r="AC272" s="0"/>
     </row>
-    <row r="273" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="16" t="n">
         <f aca="false">A272+1</f>
         <v>42640</v>
@@ -32734,7 +32742,7 @@
         <v>0</v>
       </c>
       <c r="K273" s="18" t="n">
-        <f aca="false">(IF(TRIM(C273)="-",0,C273)-IF(TRIM(B273)="-",0,B273))+(IF(TRIM(D269)="-",0,D269)-IF(TRIM(D273)="-",0,D273))+(IF(TRIM(G273)="-",0,G273)-IF(TRIM(E269)="-",0,E269))+(IF(TRIM(I273)="-",0,I273)-IF(TRIM(H273)="-",0,H273))</f>
+        <f aca="false">(IF(TRIM(C273)="-",0,C273)-IF(TRIM(B273)="-",0,B273))+(IF(TRIM(E273)="-",0,E273)-IF(TRIM(D273)="-",0,D273))+(IF(TRIM(G273)="-",0,G273)-IF(TRIM(F273)="-",0,F273))+(IF(TRIM(I273)="-",0,I273)-IF(TRIM(H273)="-",0,H273))</f>
         <v>0</v>
       </c>
       <c r="L273" s="18" t="n">
@@ -32791,15 +32799,15 @@
       </c>
       <c r="O274" s="23" t="n">
         <f aca="false">SUM(L246:L275)</f>
-        <v>0.0486111111111103</v>
+        <v>0.0624999999999991</v>
       </c>
       <c r="P274" s="23" t="n">
         <f aca="false">SUM(M246:M275)</f>
-        <v>0.0451388888888898</v>
+        <v>0.0833333333333343</v>
       </c>
       <c r="Q274" s="8" t="n">
         <f aca="false">IF(O274&gt;P274,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R274" s="10"/>
       <c r="S274" s="8" t="n">
@@ -32843,15 +32851,15 @@
       </c>
       <c r="O275" s="23" t="n">
         <f aca="false">SUM(L247:L276)</f>
-        <v>0.0486111111111103</v>
+        <v>0.0624999999999991</v>
       </c>
       <c r="P275" s="23" t="n">
         <f aca="false">SUM(M247:M276)</f>
-        <v>0.0451388888888898</v>
+        <v>0.0833333333333343</v>
       </c>
       <c r="Q275" s="8" t="n">
         <f aca="false">IF(O275&gt;P275,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R275" s="10"/>
       <c r="S275" s="8" t="n">
@@ -32899,14 +32907,14 @@
       <c r="P276" s="39"/>
       <c r="Q276" s="37" t="n">
         <f aca="false">IF(O275&gt;P275,O275-P275,P275-O275)</f>
-        <v>0.00347222222222048</v>
+        <v>0.0208333333333351</v>
       </c>
       <c r="R276" s="36" t="s">
         <v>16</v>
       </c>
       <c r="S276" s="37" t="n">
         <f aca="false">IF(Q275=S245,S246+Q276,IF(S246&gt;Q276,S246-Q276,Q276-S246))</f>
-        <v>0.243055555555554</v>
+        <v>0.218749999999999</v>
       </c>
       <c r="AC276" s="0"/>
     </row>
@@ -34180,7 +34188,7 @@
       </c>
       <c r="S307" s="37" t="n">
         <f aca="false">IF(Q306=S275,S276+Q307,IF(S276&gt;Q307,S276-Q307,Q307-S276))</f>
-        <v>0.243055555555554</v>
+        <v>0.218749999999999</v>
       </c>
       <c r="AC307" s="0"/>
     </row>
@@ -35397,7 +35405,7 @@
       </c>
       <c r="S337" s="37" t="n">
         <f aca="false">IF(Q336=S306,S307+Q337,IF(S307&gt;Q337,S307-Q337,Q337-S307))</f>
-        <v>0.243055555555554</v>
+        <v>0.218749999999999</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36640,7 +36648,7 @@
       </c>
       <c r="S368" s="37" t="n">
         <f aca="false">IF(Q367=S336,S337+Q368,IF(S337&gt;Q368,S337-Q368,Q368-S337))</f>
-        <v>0.243055555555554</v>
+        <v>0.218749999999999</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
